--- a/DATA_goal/Junction_Flooding_491.xlsx
+++ b/DATA_goal/Junction_Flooding_491.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44822.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.88</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.77</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.36</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.49</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.58</v>
+        <v>25.8</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.3</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.94</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.05</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.55</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44822.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.51</v>
+        <v>15.13</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.05</v>
+        <v>10.54</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.1</v>
+        <v>31.01</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.46</v>
+        <v>24.57</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.31</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.66</v>
+        <v>36.64</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.63</v>
+        <v>16.32</v>
       </c>
       <c r="J3" s="4" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>14.02</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>15.43</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="R3" s="4" t="n">
         <v>0.71</v>
       </c>
-      <c r="K3" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="S3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>15.82</v>
+        <v>158.19</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.02</v>
+        <v>30.24</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.05</v>
+        <v>10.5</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.07</v>
+        <v>20.73</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.11</v>
+        <v>11.14</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.82</v>
+        <v>18.16</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.89</v>
+        <v>8.85</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.24</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.3</v>
+        <v>13.02</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.18</v>
+        <v>31.79</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.43</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.22</v>
+        <v>12.22</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44822.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.42</v>
+        <v>14.2</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.2</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.97</v>
+        <v>29.72</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.39</v>
+        <v>23.91</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.15</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.13</v>
+        <v>41.26</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.6</v>
+        <v>15.95</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.7</v>
+        <v>7.02</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.55</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.17</v>
+        <v>11.74</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.15</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1</v>
+        <v>9.99</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.5</v>
+        <v>15.01</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.66</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>15.27</v>
+        <v>152.65</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.94</v>
+        <v>29.42</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1</v>
+        <v>9.98</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.01</v>
+        <v>20.11</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.68</v>
       </c>
       <c r="Y4" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>19.84</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.14</v>
       </c>
-      <c r="Z4" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>3.68</v>
+        <v>36.8</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.33</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.19</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44822.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.23</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.87</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.71</v>
+        <v>17.06</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.36</v>
+        <v>13.63</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.57</v>
+        <v>5.72</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.64</v>
+        <v>26.35</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.4</v>
+        <v>3.96</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.6</v>
+        <v>5.95</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.71</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.63</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.93</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.59</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.86</v>
+        <v>8.6</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.95</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>8.41</v>
+        <v>84.06</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.69</v>
+        <v>16.91</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.57</v>
+        <v>5.74</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.61</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.15</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.22</v>
+        <v>12.23</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.9</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.4</v>
+        <v>4.02</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.15</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.17</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.35</v>
+        <v>23.5</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.3</v>
+        <v>3.01</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_491.xlsx
+++ b/DATA_goal/Junction_Flooding_491.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44822.54861111111</v>
+        <v>45172.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.88</v>
+        <v>21.139</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.94</v>
+        <v>14.405</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.36</v>
+        <v>4.093</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7.77</v>
+        <v>44.473</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.74</v>
+        <v>36.592</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.96</v>
+        <v>16.635</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.28</v>
+        <v>54.157</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.17</v>
+        <v>25.596</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.76</v>
+        <v>10.793</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.22</v>
+        <v>16.568</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.36</v>
+        <v>17.656</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.49</v>
+        <v>18.451</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.67</v>
+        <v>5.311</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.88</v>
+        <v>16.542</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.49</v>
+        <v>23.194</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.48</v>
+        <v>13.966</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.26</v>
+        <v>3.726</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.455</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.8</v>
+        <v>244.445</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.51</v>
+        <v>46.035</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.3</v>
+        <v>15.269</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.94</v>
+        <v>30.403</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.8</v>
+        <v>15.788</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.61</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.46</v>
+        <v>26.878</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.63</v>
+        <v>13.487</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.59</v>
+        <v>12.177</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.05</v>
+        <v>14.251</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.03</v>
+        <v>18.232</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.19</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.55</v>
+        <v>47.882</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.59</v>
+        <v>8.427</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.83</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44822.55555555555</v>
+        <v>45172.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>15.13</v>
+        <v>3.363</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.54</v>
+        <v>1.826</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.98</v>
+        <v>1.371</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>31.01</v>
+        <v>6.725</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>24.57</v>
+        <v>5.458</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.31</v>
+        <v>2.648</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>36.64</v>
+        <v>16.197</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16.32</v>
+        <v>4.072</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.14</v>
+        <v>1.589</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.76</v>
+        <v>2.313</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12.15</v>
+        <v>2.755</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>14.02</v>
+        <v>2.718</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.49</v>
+        <v>0.863</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.14</v>
+        <v>2.632</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>15.43</v>
+        <v>3.642</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.91</v>
+        <v>2.544</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.71</v>
+        <v>1.498</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.27</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>158.19</v>
+        <v>32.822</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>30.24</v>
+        <v>7.777</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.5</v>
+        <v>2.429</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>20.73</v>
+        <v>4.876</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>11.14</v>
+        <v>2.58</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.42</v>
+        <v>0.671</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>18.16</v>
+        <v>7.098</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.85</v>
+        <v>2.146</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.24</v>
+        <v>2.161</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>2.485</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>13.02</v>
+        <v>2.755</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>31.79</v>
+        <v>15.157</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.43</v>
+        <v>1.187</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.22</v>
+        <v>3.042</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44822.5625</v>
+        <v>45172.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.2</v>
+        <v>20.178</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.2</v>
+        <v>14.701</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.76</v>
+        <v>1.447</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>29.72</v>
+        <v>43.528</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>23.91</v>
+        <v>35.895</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.15</v>
+        <v>15.879</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>41.26</v>
+        <v>57.341</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>15.95</v>
+        <v>24.432</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.02</v>
+        <v>10.748</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10.55</v>
+        <v>16.07</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>11.74</v>
+        <v>17.551</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.15</v>
+        <v>18.407</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.38</v>
+        <v>5.07</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.99</v>
+        <v>15.79</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>15.01</v>
+        <v>22.383</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.66</v>
+        <v>13.38</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.51</v>
+        <v>1.107</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.27</v>
+        <v>0.93</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>152.65</v>
+        <v>233.011</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>29.42</v>
+        <v>44.036</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>9.98</v>
+        <v>14.575</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>20.11</v>
+        <v>29.479</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.68</v>
+        <v>15.659</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.38</v>
+        <v>2.33</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>19.84</v>
+        <v>28.177</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.57</v>
+        <v>12.874</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.16</v>
+        <v>11.489</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>13.488</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.5</v>
+        <v>18.36</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>36.8</v>
+        <v>51.705</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.33</v>
+        <v>8.161</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>11.92</v>
+        <v>18.222</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44822.56944444445</v>
+        <v>45172.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.23</v>
+        <v>12.97</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.87</v>
+        <v>9.4</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.48</v>
+        <v>0.99</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>17.06</v>
+        <v>27.96</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>13.63</v>
+        <v>23.02</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.72</v>
+        <v>10.21</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>26.35</v>
+        <v>41.59</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.07</v>
+        <v>15.71</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.96</v>
+        <v>6.91</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.95</v>
+        <v>10.27</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.71</v>
+        <v>11.3</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.63</v>
+        <v>11.82</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.93</v>
+        <v>3.26</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.59</v>
+        <v>10.15</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.6</v>
+        <v>14.4</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.95</v>
+        <v>8.66</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.8</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.61</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>84.06</v>
+        <v>147.19</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>16.91</v>
+        <v>28.46</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.74</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.61</v>
+        <v>19</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.15</v>
+        <v>10.1</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.79</v>
+        <v>1.55</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>12.23</v>
+        <v>19.78</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.9</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.02</v>
+        <v>7.41</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.15</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.17</v>
+        <v>11.81</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>23.5</v>
+        <v>37.84</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.01</v>
+        <v>5.22</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.77</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44822.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>21.97</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>72.64</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>14.74</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>19.47</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.94</v>
+        <v>11.71</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_491.xlsx
+++ b/DATA_goal/Junction_Flooding_491.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,14 +451,14 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
@@ -468,9 +468,9 @@
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45172.50694444445</v>
+        <v>44822.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>21.139</v>
+        <v>5.885</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>14.405</v>
+        <v>1.942</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.093</v>
+        <v>1.363</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>44.473</v>
+        <v>7.767</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>36.592</v>
+        <v>3.737</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>16.635</v>
+        <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>54.157</v>
+        <v>6.281</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>25.596</v>
+        <v>2.168</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.793</v>
+        <v>0.758</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>16.568</v>
+        <v>1.218</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>17.656</v>
+        <v>2.359</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>18.451</v>
+        <v>5.493</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.311</v>
+        <v>0.668</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>16.542</v>
+        <v>0.884</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>23.194</v>
+        <v>2.495</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.966</v>
+        <v>1.484</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.726</v>
+        <v>1.256</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.455</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>244.445</v>
+        <v>25.797</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>46.035</v>
+        <v>5.514</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>15.269</v>
+        <v>3.303</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>30.403</v>
+        <v>3.938</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>15.788</v>
+        <v>2.803</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.61</v>
+        <v>0.246</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>26.878</v>
+        <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>13.487</v>
+        <v>1.634</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.177</v>
+        <v>0.588</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>14.251</v>
+        <v>2.048</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>18.232</v>
+        <v>3.034</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.186</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>47.882</v>
+        <v>2.547</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.427</v>
+        <v>0.594</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>19.09</v>
+        <v>1.826</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45172.51388888889</v>
+        <v>44822.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.363</v>
+        <v>15.133</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.826</v>
+        <v>10.54</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.371</v>
+        <v>0.983</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>6.725</v>
+        <v>31.01</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>5.458</v>
+        <v>24.572</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.648</v>
+        <v>10.312</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>16.197</v>
+        <v>36.635</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>4.072</v>
+        <v>16.319</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.589</v>
+        <v>7.143</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.313</v>
+        <v>10.76</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.755</v>
+        <v>12.146</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.718</v>
+        <v>14.023</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.863</v>
+        <v>3.493</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.632</v>
+        <v>10.135</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.642</v>
+        <v>15.434</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.544</v>
+        <v>8.911</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.498</v>
+        <v>0.71</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.27</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>32.822</v>
+        <v>158.188</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>7.777</v>
+        <v>30.242</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.429</v>
+        <v>10.501</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>4.876</v>
+        <v>20.727</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.58</v>
+        <v>11.141</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.671</v>
+        <v>1.42</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>7.098</v>
+        <v>18.157</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.146</v>
+        <v>8.853999999999999</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.161</v>
+        <v>7.245</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.485</v>
+        <v>9.301</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.755</v>
+        <v>13.018</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.294</v>
+        <v>0.173</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>15.157</v>
+        <v>31.792</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.187</v>
+        <v>5.433</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.042</v>
+        <v>12.224</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45172.52083333334</v>
+        <v>44822.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>20.178</v>
+        <v>14.201</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>14.701</v>
+        <v>10.201</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.447</v>
+        <v>0.764</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>43.528</v>
+        <v>29.722</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>35.895</v>
+        <v>23.911</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>15.879</v>
+        <v>10.151</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>57.341</v>
+        <v>41.261</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>24.432</v>
+        <v>15.952</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.748</v>
+        <v>7.017</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>16.07</v>
+        <v>10.547</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>17.551</v>
+        <v>11.737</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>18.407</v>
+        <v>13.153</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.07</v>
+        <v>3.379</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>15.79</v>
+        <v>9.984999999999999</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>22.383</v>
+        <v>15.01</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>13.38</v>
+        <v>8.659000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.107</v>
+        <v>0.512</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.93</v>
+        <v>0.272</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>233.011</v>
+        <v>152.654</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>44.036</v>
+        <v>29.424</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>14.575</v>
+        <v>9.981</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>29.479</v>
+        <v>20.11</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>15.659</v>
+        <v>10.68</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.33</v>
+        <v>1.376</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>28.177</v>
+        <v>19.839</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.874</v>
+        <v>8.569000000000001</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>11.489</v>
+        <v>7.156</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>13.488</v>
+        <v>8.965</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>18.36</v>
+        <v>12.503</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.784</v>
+        <v>0.141</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>51.705</v>
+        <v>36.8</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.161</v>
+        <v>5.333</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>18.222</v>
+        <v>11.916</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45172.52777777778</v>
+        <v>44822.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.97</v>
+        <v>8.231</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.4</v>
+        <v>5.865</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.99</v>
+        <v>0.48</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>27.96</v>
+        <v>17.062</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>23.02</v>
+        <v>13.627</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.21</v>
+        <v>5.722</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>41.59</v>
+        <v>26.352</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.71</v>
+        <v>9.07</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.91</v>
+        <v>3.956</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.27</v>
+        <v>5.952</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.3</v>
+        <v>6.708</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.82</v>
+        <v>7.632</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.26</v>
+        <v>1.934</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.15</v>
+        <v>5.595</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.4</v>
+        <v>8.603999999999999</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.66</v>
+        <v>4.946</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.367</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.119</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>147.19</v>
+        <v>84.062</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>28.46</v>
+        <v>16.914</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>5.742</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>19</v>
+        <v>11.608</v>
       </c>
       <c r="X5" s="4" t="n">
+        <v>6.154</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>12.234</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>4.897</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>4.025</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>5.154</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>23.497</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>3.008</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44822.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>21.97</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>72.64</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>14.74</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="W6" s="4" t="n">
         <v>10.1</v>
       </c>
-      <c r="Y5" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>19.78</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>37.84</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>11.71</v>
+      <c r="X6" s="4" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>19.47</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>5.94</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_491.xlsx
+++ b/DATA_goal/Junction_Flooding_491.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,14 +451,14 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
@@ -468,9 +468,9 @@
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44822.54861111111</v>
+        <v>45172.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.885</v>
+        <v>21.139</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.942</v>
+        <v>14.405</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.363</v>
+        <v>4.093</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7.767</v>
+        <v>44.473</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.737</v>
+        <v>36.592</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.96</v>
+        <v>16.635</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.281</v>
+        <v>54.157</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.168</v>
+        <v>25.596</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.758</v>
+        <v>10.793</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.218</v>
+        <v>16.568</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.359</v>
+        <v>17.656</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.493</v>
+        <v>18.451</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.668</v>
+        <v>5.311</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.884</v>
+        <v>16.542</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.495</v>
+        <v>23.194</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.484</v>
+        <v>13.966</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.256</v>
+        <v>3.726</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.455</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.797</v>
+        <v>244.445</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.514</v>
+        <v>46.035</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.303</v>
+        <v>15.269</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.938</v>
+        <v>30.403</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.803</v>
+        <v>15.788</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.246</v>
+        <v>2.61</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.46</v>
+        <v>26.878</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.634</v>
+        <v>13.487</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.588</v>
+        <v>12.177</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.048</v>
+        <v>14.251</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.034</v>
+        <v>18.232</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.186</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.547</v>
+        <v>47.882</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.594</v>
+        <v>8.427</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.826</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44822.55555555555</v>
+        <v>45172.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>15.133</v>
+        <v>3.363</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.54</v>
+        <v>1.826</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.983</v>
+        <v>1.371</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>31.01</v>
+        <v>6.725</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>24.572</v>
+        <v>5.458</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.312</v>
+        <v>2.648</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>36.635</v>
+        <v>16.197</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16.319</v>
+        <v>4.072</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.143</v>
+        <v>1.589</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.76</v>
+        <v>2.313</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12.146</v>
+        <v>2.755</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>14.023</v>
+        <v>2.718</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.493</v>
+        <v>0.863</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.135</v>
+        <v>2.632</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>15.434</v>
+        <v>3.642</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.911</v>
+        <v>2.544</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.71</v>
+        <v>1.498</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.27</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>158.188</v>
+        <v>32.822</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>30.242</v>
+        <v>7.777</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.501</v>
+        <v>2.429</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>20.727</v>
+        <v>4.876</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>11.141</v>
+        <v>2.58</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.42</v>
+        <v>0.671</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>18.157</v>
+        <v>7.098</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.853999999999999</v>
+        <v>2.146</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.245</v>
+        <v>2.161</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.301</v>
+        <v>2.485</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>13.018</v>
+        <v>2.755</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.173</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>31.792</v>
+        <v>15.157</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.433</v>
+        <v>1.187</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.224</v>
+        <v>3.042</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44822.5625</v>
+        <v>45172.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.201</v>
+        <v>20.178</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.201</v>
+        <v>14.701</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.764</v>
+        <v>1.447</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>29.722</v>
+        <v>43.528</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>23.911</v>
+        <v>35.895</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.151</v>
+        <v>15.879</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>41.261</v>
+        <v>57.341</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>15.952</v>
+        <v>24.432</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.017</v>
+        <v>10.748</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10.547</v>
+        <v>16.07</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>11.737</v>
+        <v>17.551</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.153</v>
+        <v>18.407</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.379</v>
+        <v>5.07</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.984999999999999</v>
+        <v>15.79</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>15.01</v>
+        <v>22.383</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.659000000000001</v>
+        <v>13.38</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.512</v>
+        <v>1.107</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.272</v>
+        <v>0.93</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>152.654</v>
+        <v>233.011</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>29.424</v>
+        <v>44.036</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>9.981</v>
+        <v>14.575</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>20.11</v>
+        <v>29.479</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.68</v>
+        <v>15.659</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.376</v>
+        <v>2.33</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>19.839</v>
+        <v>28.177</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.569000000000001</v>
+        <v>12.874</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.156</v>
+        <v>11.489</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.965</v>
+        <v>13.488</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.503</v>
+        <v>18.36</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.141</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>36.8</v>
+        <v>51.705</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.333</v>
+        <v>8.161</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>11.916</v>
+        <v>18.222</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44822.56944444445</v>
+        <v>45172.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.231</v>
+        <v>12.97</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.865</v>
+        <v>9.4</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.48</v>
+        <v>0.99</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>17.062</v>
+        <v>27.96</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>13.627</v>
+        <v>23.02</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.722</v>
+        <v>10.21</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>26.352</v>
+        <v>41.59</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.07</v>
+        <v>15.71</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.956</v>
+        <v>6.91</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.952</v>
+        <v>10.27</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.708</v>
+        <v>11.3</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.632</v>
+        <v>11.82</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.934</v>
+        <v>3.26</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.595</v>
+        <v>10.15</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.603999999999999</v>
+        <v>14.4</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.946</v>
+        <v>8.66</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.367</v>
+        <v>0.8</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.119</v>
+        <v>0.61</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>84.062</v>
+        <v>147.19</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>16.914</v>
+        <v>28.46</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.742</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.608</v>
+        <v>19</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.154</v>
+        <v>10.1</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.787</v>
+        <v>1.55</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>12.234</v>
+        <v>19.78</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.897</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.025</v>
+        <v>7.41</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.154</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.17</v>
+        <v>11.81</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.118</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>23.497</v>
+        <v>37.84</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.008</v>
+        <v>5.22</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.77</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44822.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>21.97</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>72.64</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>14.74</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>19.47</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.94</v>
+        <v>11.71</v>
       </c>
     </row>
   </sheetData>
